--- a/doc/PLO/Kodeverk PLO.xlsx
+++ b/doc/PLO/Kodeverk PLO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dips-git\dips-ckm\doc\PLO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dips-ckm\doc\PLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="For Doozers - mangler kodeverk" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
   <si>
     <t>Template</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t xml:space="preserve">Rolle f.eks. utskrivende lege etc. s.o. </t>
+  </si>
+  <si>
+    <t>Helseopplysning tidligmelding</t>
+  </si>
+  <si>
+    <t>Type innhold</t>
+  </si>
+  <si>
+    <t>Type innhold i meldingen Helseopplysninger (OID=9140)</t>
   </si>
 </sst>
 </file>
@@ -318,9 +327,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -330,28 +336,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -637,35 +646,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="4"/>
+    <col min="7" max="7" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -678,237 +687,237 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>8279</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>9121</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>8279</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>9121</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>9121</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>9034</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>8279</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>9121</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>9121</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>8431</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>8408</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>9034</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -918,72 +927,86 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>9034</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>8279</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>9154</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="8">
+        <v>9140</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1007,9 +1030,10 @@
     <hyperlink ref="E19" r:id="rId12" display="https://volven.no/produkt.asp?id=287538&amp;catID=3&amp;subID=8"/>
     <hyperlink ref="E20" r:id="rId13" display="https://volven.no/produkt.asp?id=288433&amp;catID=3&amp;subID=8"/>
     <hyperlink ref="E21" r:id="rId14" display="https://volven.no/produkt.asp?id=288036&amp;catID=3&amp;subID=8"/>
+    <hyperlink ref="E23" r:id="rId15" display="https://volven.no/produkt.asp?id=288027&amp;catID=3&amp;subID=8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -1017,33 +1041,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="4"/>
+    <col min="7" max="7" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1056,153 +1080,153 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:7" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>8279</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>9121</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>9034</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>8431</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>8408</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>8279</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>9154</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>55</v>
       </c>

--- a/doc/PLO/Kodeverk PLO.xlsx
+++ b/doc/PLO/Kodeverk PLO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>Template</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>Type innhold i meldingen Helseopplysninger (OID=9140)</t>
+  </si>
+  <si>
+    <t>Pasientopplysninger</t>
+  </si>
+  <si>
+    <t>Relasjon</t>
+  </si>
+  <si>
+    <t>Verdi hentes fra pasientopplysninger. Må inneholde samme kodeverk som i pasientopplysninger</t>
+  </si>
+  <si>
+    <t>Omsorgsrolle (OID=8422)</t>
   </si>
 </sst>
 </file>
@@ -646,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,6 +1019,23 @@
       </c>
       <c r="E23" s="9" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="8">
+        <v>8422</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1031,9 +1060,10 @@
     <hyperlink ref="E20" r:id="rId13" display="https://volven.no/produkt.asp?id=288433&amp;catID=3&amp;subID=8"/>
     <hyperlink ref="E21" r:id="rId14" display="https://volven.no/produkt.asp?id=288036&amp;catID=3&amp;subID=8"/>
     <hyperlink ref="E23" r:id="rId15" display="https://volven.no/produkt.asp?id=288027&amp;catID=3&amp;subID=8"/>
+    <hyperlink ref="E25" r:id="rId16" display="https://volven.no/produkt.asp?id=287866&amp;catID=3&amp;subID=8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
